--- a/assets/template-peserta.xlsx
+++ b/assets/template-peserta.xlsx
@@ -397,82 +397,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>ID Sertifikat</v>
+      </c>
+      <c r="B1" t="str">
         <v>Nama Peserta</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>Activity</v>
       </c>
-      <c r="C1" t="str">
-        <v>Examiner Name</v>
-      </c>
       <c r="D1" t="str">
-        <v>Examiner Position</v>
-      </c>
-      <c r="E1" t="str">
         <v>Company Code</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Date Issued</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>CERT-20240001</v>
+      </c>
+      <c r="B2" t="str">
         <v>John Doe</v>
       </c>
-      <c r="B2" t="str">
+      <c r="C2" t="str">
         <v>Pelatihan React JS</v>
       </c>
-      <c r="C2" t="str">
-        <v>Dr. Jane Smith</v>
-      </c>
       <c r="D2" t="str">
-        <v>Senior Developer</v>
-      </c>
-      <c r="E2" t="str">
         <v>COMP001</v>
-      </c>
-      <c r="F2" t="str">
-        <v>2024-01-15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>CERT-20240002</v>
+      </c>
+      <c r="B3" t="str">
         <v>Jane Smith</v>
       </c>
-      <c r="B3" t="str">
+      <c r="C3" t="str">
         <v>Pelatihan Node.js</v>
       </c>
-      <c r="C3" t="str">
-        <v>Dr. John Doe</v>
-      </c>
       <c r="D3" t="str">
-        <v>Tech Lead</v>
-      </c>
-      <c r="E3" t="str">
         <v>COMP002</v>
-      </c>
-      <c r="F3" t="str">
-        <v>2024-01-16</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>